--- a/Table 2.xlsx
+++ b/Table 2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjaybasu/Box/Analytics Team/Research/Research projects/Medicare PCP spend/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjaybasu/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCAEB7D-7A63-1D4F-9AA8-0CCDC00E47FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56D9979-93D0-1F41-ADCF-55391947031A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-51200" yWindow="-10340" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="67">
   <si>
     <t>Alabama</t>
   </si>
@@ -1124,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
-      <selection activeCell="F58" sqref="A2:F58"/>
+    <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1162,15 +1162,15 @@
         <v>2.12E-2</v>
       </c>
       <c r="C3" s="2">
-        <f>B3+0.002</f>
-        <v>2.3199999999999998E-2</v>
+        <f>B3+0.003</f>
+        <v>2.4199999999999999E-2</v>
       </c>
       <c r="D3" s="6">
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="E3" s="2">
-        <f>D3+0.004</f>
-        <v>0.06</v>
+        <f>D3+0.012</f>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
@@ -1184,15 +1184,15 @@
         <v>2.29E-2</v>
       </c>
       <c r="C4" s="2">
-        <f>B4+0.002</f>
-        <v>2.4899999999999999E-2</v>
+        <f t="shared" ref="C4:C54" si="0">B4+0.003</f>
+        <v>2.5899999999999999E-2</v>
       </c>
       <c r="D4" s="6">
         <v>6.2E-2</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E54" si="0">D4+0.004</f>
-        <v>6.6000000000000003E-2</v>
+        <f>D4+0.012</f>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
@@ -1206,13 +1206,15 @@
         <v>2.01E-2</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:C54" si="1">B5+0.002</f>
-        <v>2.2100000000000002E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.3099999999999999E-2</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -1222,15 +1224,15 @@
         <v>2.52E-2</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7200000000000002E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="D6" s="6">
         <v>5.2000000000000005E-2</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="0"/>
-        <v>5.6000000000000008E-2</v>
+        <f>D6+0.012</f>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="N6" s="3"/>
       <c r="P6" s="4"/>
@@ -1245,13 +1247,15 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="1"/>
-        <v>2.3E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.4E-2</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1261,15 +1265,15 @@
         <v>2.23E-2</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="1"/>
-        <v>2.4300000000000002E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.53E-2</v>
       </c>
       <c r="D8" s="6">
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>6.5000000000000002E-2</v>
+        <f>D8+0.012</f>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>62</v>
@@ -1284,15 +1288,15 @@
         <v>2.1899999999999999E-2</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="1"/>
-        <v>2.3899999999999998E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.4899999999999999E-2</v>
       </c>
       <c r="D9" s="6">
         <v>0.05</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="0"/>
-        <v>5.4000000000000006E-2</v>
+        <f>D9+0.012</f>
+        <v>6.2E-2</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>63</v>
@@ -1309,15 +1313,15 @@
         <v>1.89E-2</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="1"/>
-        <v>2.0900000000000002E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.1899999999999999E-2</v>
       </c>
       <c r="D10" s="6">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>3.9000000000000007E-2</v>
+        <f>D10+0.012</f>
+        <v>4.7E-2</v>
       </c>
       <c r="N10" s="5"/>
     </row>
@@ -1329,13 +1333,15 @@
         <v>2.3400000000000001E-2</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="1"/>
-        <v>2.5399999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.64E-2</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="F11" s="1" t="s">
         <v>62</v>
       </c>
@@ -1348,13 +1354,15 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="1"/>
-        <v>1.9999999999999997E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.0999999999999998E-2</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -1365,15 +1373,15 @@
         <v>2.2800000000000001E-2</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="1"/>
-        <v>2.4800000000000003E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.58E-2</v>
       </c>
       <c r="D13" s="6">
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>6.0999999999999999E-2</v>
+        <f>D13+0.012</f>
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -1384,15 +1392,15 @@
         <v>2.24E-2</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="1"/>
-        <v>2.4399999999999998E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="D14" s="6">
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="0"/>
-        <v>6.0999999999999999E-2</v>
+        <f>D14+0.012</f>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="N14" s="5"/>
     </row>
@@ -1404,13 +1412,15 @@
         <v>3.1800000000000002E-2</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="1"/>
-        <v>3.3800000000000004E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.4800000000000005E-2</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="F15" s="1" t="s">
         <v>62</v>
       </c>
@@ -1423,13 +1433,15 @@
         <v>1.66E-2</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="1"/>
-        <v>1.8599999999999998E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.9599999999999999E-2</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="N16" s="5"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -1440,15 +1452,15 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="1"/>
-        <v>2.3E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.4E-2</v>
       </c>
       <c r="D17" s="6">
         <v>0.05</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="0"/>
-        <v>5.4000000000000006E-2</v>
+        <f>D17+0.012</f>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -1459,15 +1471,15 @@
         <v>1.8800000000000001E-2</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="1"/>
-        <v>2.0799999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.18E-2</v>
       </c>
       <c r="D18" s="6">
         <v>4.7E-2</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="0"/>
-        <v>5.1000000000000004E-2</v>
+        <f>D18+0.012</f>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="N18" s="5"/>
     </row>
@@ -1479,13 +1491,15 @@
         <v>2.0799999999999999E-2</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="1"/>
-        <v>2.2800000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.3799999999999998E-2</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -1495,13 +1509,15 @@
         <v>1.9199999999999998E-2</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="1"/>
-        <v>2.1199999999999997E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.2199999999999998E-2</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="N20" s="5"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -1512,15 +1528,15 @@
         <v>1.9300000000000001E-2</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="1"/>
-        <v>2.1299999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.23E-2</v>
       </c>
       <c r="D21" s="6">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="0"/>
-        <v>4.9000000000000002E-2</v>
+        <f>D21+0.012</f>
+        <v>5.6999999999999995E-2</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -1531,15 +1547,15 @@
         <v>1.6400000000000001E-2</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="1"/>
-        <v>1.84E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.9400000000000001E-2</v>
       </c>
       <c r="D22" s="6">
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="0"/>
-        <v>5.6999999999999995E-2</v>
+        <f>D22+0.012</f>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="N22" s="5"/>
     </row>
@@ -1551,13 +1567,15 @@
         <v>1.89E-2</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="1"/>
-        <v>2.0900000000000002E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.1899999999999999E-2</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="F23" s="1" t="s">
         <v>62</v>
       </c>
@@ -1570,15 +1588,15 @@
         <v>2.18E-2</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="1"/>
-        <v>2.3800000000000002E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="D24" s="6">
         <v>5.5E-2</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="0"/>
-        <v>5.8999999999999997E-2</v>
+        <f>D24+0.012</f>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="N24" s="5"/>
     </row>
@@ -1590,15 +1608,15 @@
         <v>2.1399999999999999E-2</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="1"/>
-        <v>2.3399999999999997E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.4399999999999998E-2</v>
       </c>
       <c r="D25" s="6">
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="0"/>
-        <v>5.2000000000000005E-2</v>
+        <f>D25+0.012</f>
+        <v>0.06</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>62</v>
@@ -1612,15 +1630,15 @@
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="1"/>
-        <v>2.3300000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.4299999999999999E-2</v>
       </c>
       <c r="D26" s="6">
         <v>4.7E-2</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="0"/>
-        <v>5.1000000000000004E-2</v>
+        <f>D26+0.012</f>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="N26" s="5"/>
     </row>
@@ -1632,15 +1650,15 @@
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="1"/>
-        <v>2.06E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.1599999999999998E-2</v>
       </c>
       <c r="D27" s="6">
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="0"/>
-        <v>0.08</v>
+        <f>D27+0.012</f>
+        <v>8.7999999999999995E-2</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -1651,13 +1669,15 @@
         <v>1.6799999999999999E-2</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" si="1"/>
-        <v>1.8799999999999997E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.9799999999999998E-2</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="N28" s="5"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -1668,15 +1688,15 @@
         <v>1.84E-2</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" si="1"/>
-        <v>2.0400000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.1399999999999999E-2</v>
       </c>
       <c r="D29" s="6">
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <f>D29+0.012</f>
+        <v>5.7999999999999996E-2</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>62</v>
@@ -1690,13 +1710,15 @@
         <v>1.7399999999999999E-2</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" si="1"/>
-        <v>1.9400000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.0399999999999998E-2</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="E30" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="N30" s="5"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -1707,13 +1729,15 @@
         <v>1.84E-2</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="1"/>
-        <v>2.0400000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.1399999999999999E-2</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E31" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
@@ -1723,13 +1747,15 @@
         <v>1.9900000000000001E-2</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" si="1"/>
-        <v>2.1900000000000003E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.29E-2</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="N32" s="5"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -1740,13 +1766,15 @@
         <v>1.9900000000000001E-2</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="1"/>
-        <v>2.1900000000000003E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.29E-2</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
@@ -1756,15 +1784,15 @@
         <v>2.1100000000000001E-2</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" si="1"/>
-        <v>2.3100000000000002E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.41E-2</v>
       </c>
       <c r="D34" s="6">
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <f>D34+0.012</f>
+        <v>5.7999999999999996E-2</v>
       </c>
       <c r="N34" s="5"/>
     </row>
@@ -1776,13 +1804,15 @@
         <v>2.23E-2</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" si="1"/>
-        <v>2.4300000000000002E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.53E-2</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
@@ -1792,15 +1822,15 @@
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" si="1"/>
-        <v>2.3300000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.4299999999999999E-2</v>
       </c>
       <c r="D36" s="6">
         <v>0.05</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="0"/>
-        <v>5.4000000000000006E-2</v>
+        <f>D36+0.012</f>
+        <v>6.2E-2</v>
       </c>
       <c r="N36" s="5"/>
     </row>
@@ -1812,15 +1842,15 @@
         <v>2.4E-2</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" si="1"/>
-        <v>2.6000000000000002E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="D37" s="6">
         <v>5.9000000000000004E-2</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="0"/>
-        <v>6.3E-2</v>
+        <f>D37+0.012</f>
+        <v>7.1000000000000008E-2</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -1831,13 +1861,15 @@
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" si="1"/>
-        <v>1.7899999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.89E-2</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E38" s="2"/>
+      <c r="E38" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="N38" s="5"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -1848,15 +1880,15 @@
         <v>2.06E-2</v>
       </c>
       <c r="C39" s="2">
-        <f t="shared" si="1"/>
-        <v>2.2600000000000002E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.3599999999999999E-2</v>
       </c>
       <c r="D39" s="6">
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <f>D39+0.012</f>
+        <v>5.7999999999999996E-2</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -1867,15 +1899,15 @@
         <v>2.0199999999999999E-2</v>
       </c>
       <c r="C40" s="2">
-        <f t="shared" si="1"/>
-        <v>2.2199999999999998E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="D40" s="6">
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="E40" s="2">
-        <f t="shared" si="0"/>
-        <v>7.1000000000000008E-2</v>
+        <f>D40+0.012</f>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="N40" s="5"/>
     </row>
@@ -1887,15 +1919,15 @@
         <v>2.0299999999999999E-2</v>
       </c>
       <c r="C41" s="2">
-        <f t="shared" si="1"/>
-        <v>2.23E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.3299999999999998E-2</v>
       </c>
       <c r="D41" s="6">
         <v>5.5999999999999994E-2</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" si="0"/>
-        <v>0.06</v>
+        <f>D41+0.012</f>
+        <v>6.7999999999999991E-2</v>
       </c>
       <c r="F41" s="2">
         <v>0.12</v>
@@ -1912,15 +1944,15 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="C42" s="2">
-        <f t="shared" si="1"/>
-        <v>2.4E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.4999999999999998E-2</v>
       </c>
       <c r="D42" s="6">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="E42" s="2">
-        <f t="shared" si="0"/>
-        <v>4.5999999999999999E-2</v>
+        <f>D42+0.012</f>
+        <v>5.4000000000000006E-2</v>
       </c>
       <c r="N42" s="5"/>
     </row>
@@ -1932,13 +1964,15 @@
         <v>2.3199999999999998E-2</v>
       </c>
       <c r="C43" s="2">
-        <f t="shared" si="1"/>
-        <v>2.52E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.6199999999999998E-2</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E43" s="2"/>
+      <c r="E43" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="F43" s="2" t="s">
         <v>65</v>
       </c>
@@ -1954,15 +1988,15 @@
         <v>2.4299999999999999E-2</v>
       </c>
       <c r="C44" s="2">
-        <f t="shared" si="1"/>
-        <v>2.6299999999999997E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.7299999999999998E-2</v>
       </c>
       <c r="D44" s="6">
         <v>0.05</v>
       </c>
       <c r="E44" s="2">
-        <f t="shared" si="0"/>
-        <v>5.4000000000000006E-2</v>
+        <f>D44+0.012</f>
+        <v>6.2E-2</v>
       </c>
       <c r="N44" s="5"/>
     </row>
@@ -1974,13 +2008,15 @@
         <v>1.6199999999999999E-2</v>
       </c>
       <c r="C45" s="2">
-        <f t="shared" si="1"/>
-        <v>1.8200000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E45" s="2"/>
+      <c r="E45" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
@@ -1990,15 +2026,15 @@
         <v>2.18E-2</v>
       </c>
       <c r="C46" s="2">
-        <f t="shared" si="1"/>
-        <v>2.3800000000000002E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="D46" s="6">
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="E46" s="2">
-        <f t="shared" si="0"/>
-        <v>5.2000000000000005E-2</v>
+        <f>D46+0.012</f>
+        <v>0.06</v>
       </c>
       <c r="N46" s="5"/>
     </row>
@@ -2010,15 +2046,15 @@
         <v>1.9300000000000001E-2</v>
       </c>
       <c r="C47" s="2">
-        <f t="shared" si="1"/>
-        <v>2.1299999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.23E-2</v>
       </c>
       <c r="D47" s="6">
         <v>6.3E-2</v>
       </c>
       <c r="E47" s="2">
-        <f t="shared" si="0"/>
-        <v>6.7000000000000004E-2</v>
+        <f>D47+0.012</f>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
@@ -2029,13 +2065,15 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="C48" s="2">
-        <f t="shared" si="1"/>
-        <v>2.4E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.4999999999999998E-2</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E48" s="2"/>
+      <c r="E48" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="N48" s="5"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
@@ -2046,13 +2084,15 @@
         <v>2.3699999999999999E-2</v>
       </c>
       <c r="C49" s="2">
-        <f t="shared" si="1"/>
-        <v>2.5700000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.6699999999999998E-2</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E49" s="2"/>
+      <c r="E49" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="F49" s="1" t="s">
         <v>62</v>
       </c>
@@ -2065,15 +2105,15 @@
         <v>2.5600000000000001E-2</v>
       </c>
       <c r="C50" s="2">
-        <f t="shared" si="1"/>
-        <v>2.76E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.86E-2</v>
       </c>
       <c r="D50" s="6">
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="E50" s="2">
-        <f t="shared" si="0"/>
-        <v>6.0999999999999999E-2</v>
+        <f>D50+0.012</f>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="N50" s="5"/>
     </row>
@@ -2085,15 +2125,15 @@
         <v>2.0899999999999998E-2</v>
       </c>
       <c r="C51" s="2">
-        <f t="shared" si="1"/>
-        <v>2.2899999999999997E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.3899999999999998E-2</v>
       </c>
       <c r="D51" s="6">
         <v>5.9000000000000004E-2</v>
       </c>
       <c r="E51" s="2">
-        <f t="shared" si="0"/>
-        <v>6.3E-2</v>
+        <f>D51+0.012</f>
+        <v>7.1000000000000008E-2</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -2104,13 +2144,15 @@
         <v>2.2100000000000002E-2</v>
       </c>
       <c r="C52" s="2">
-        <f t="shared" si="1"/>
-        <v>2.4100000000000003E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.5100000000000001E-2</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E52" s="2"/>
+      <c r="E52" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="F52" s="1" t="s">
         <v>62</v>
       </c>
@@ -2124,15 +2166,15 @@
         <v>2.0299999999999999E-2</v>
       </c>
       <c r="C53" s="2">
-        <f t="shared" si="1"/>
-        <v>2.23E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.3299999999999998E-2</v>
       </c>
       <c r="D53" s="6">
         <v>6.2E-2</v>
       </c>
       <c r="E53" s="2">
-        <f t="shared" si="0"/>
-        <v>6.6000000000000003E-2</v>
+        <f>D53+0.012</f>
+        <v>7.3999999999999996E-2</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
@@ -2143,13 +2185,15 @@
         <v>1.6799999999999999E-2</v>
       </c>
       <c r="C54" s="2">
-        <f t="shared" si="1"/>
-        <v>1.8799999999999997E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.9799999999999998E-2</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E54" s="2"/>
+      <c r="E54" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="N54" s="5"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
